--- a/configuration/InstructorStudentData.xlsx
+++ b/configuration/InstructorStudentData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ryu\github\SoftwareTesting\configuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213A0A8D-673A-46C8-9C6A-B8DF3D5C2E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069550ED-6955-44E4-8591-24F25F409B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{30430B98-1174-47A6-B3A1-7C476BA58E5F}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="16200" windowHeight="9308" xr2:uid="{30430B98-1174-47A6-B3A1-7C476BA58E5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -48,12 +48,6 @@
     <t>test2</t>
   </si>
   <si>
-    <t>Acong Gemink</t>
-  </si>
-  <si>
-    <t>Student ab</t>
-  </si>
-  <si>
     <t>course_name</t>
   </si>
   <si>
@@ -61,16 +55,25 @@
   </si>
   <si>
     <t>Python Intermediate</t>
+  </si>
+  <si>
+    <t>Student test 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -416,7 +419,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -435,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -443,10 +446,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -454,13 +457,14 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
